--- a/medicine/Sexualité et sexologie/Coït_intercrural/Coït_intercrural.xlsx
+++ b/medicine/Sexualité et sexologie/Coït_intercrural/Coït_intercrural.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Co%C3%AFt_intercrural</t>
+          <t>Coït_intercrural</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le coït intercrural (du latin inter-, « entre » et crura « jambes ») est une pratique sexuelle au cours de laquelle la stimulation sexuelle masculine est obtenue en enserrant le pénis entre les cuisses de son ou de sa partenaire, simulant une pénétration. On parle également de stimulation interfémorale.
 On trouve des témoignages de son utilisation dès la Grèce antique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Co%C3%AFt_intercrural</t>
+          <t>Coït_intercrural</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Proche d’une position en levrette, mais généralement avec le buste du partenaire plutôt relevé pour permettre les caresses, l’homme, jambes placées de part et d’autre de celle de son ou sa partenaire, place son pénis entre les cuisses doucement serrées de son ou sa partenaire et procède à un acte de coït sans pénétration vaginale ou anale.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Co%C3%AFt_intercrural</t>
+          <t>Coït_intercrural</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Usage de cette pratique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Japon où l’usage de la pilule contraceptive est peu répandu, cette position est fréquemment pratiquée dans les lieux de prostitution car elle évite, si les partenaires le souhaitent et à condition qu’ils fassent attention, tout contact entre les organes génitaux, ainsi que le contact entre le sexe féminin et le sperme[réf. nécessaire]. Elle permet également d’échapper à la loi anti-prostitution de 1956, puisqu’il n’y a pas pénétration.
 Elle est également pratiquée par les hommes homosexuels ne souhaitant pas de rapport anal.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Co%C3%AFt_intercrural</t>
+          <t>Coït_intercrural</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Les variantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur la position de base, au lieu de relever son buste, la femme (dans le cas d'un rapport hétérosexuel) peut rester en position de levrette. Le sexe en érection pourra alors frotter la zone des lèvres et du clitoris. Les sécrétions vaginales auront bien sûr tendance à s’écouler sur le sexe masculin.
 La personne prêtant ses cuisses à cet acte peut également être étendue sur un plan (lit, table), les jambes à la verticale.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Co%C3%AFt_intercrural</t>
+          <t>Coït_intercrural</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Histoire et culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Abondamment représentée sur les vases peints de l’époque (groupe β de la classification Beazley), cette position était une forme commune de sexualité dans la Grèce antique dans le cadre des relations pédérastiques entre un éraste (amant) et son éromène (aimé). Selon la représentation la plus commune des vases, l’éraste étreint le torse de l’éromène, ploie les genoux, courbe la tête et insère son pénis entre les cuisses de l'éromène, sous le scrotum. La position est également attestée en littérature : elle est décrite par le verbe διαμηρίζειν / diamêrízein, littéralement « le faire entre les cuisses », dont la première occurrence se trouve dans la comédie les Oiseaux d’Aristophane.[réf. souhaitée]
 L’importance relative de cette pratique par rapport à celle de la sodomie est difficile à évaluer. Les vases ne décrivent la sodomie homosexuelle qu’entre personnes de même âge, comastes (participants ivres d’un banquet) ou satyres. En revanche, les graffitis pornographiques, la comédie attique et la poésie hellénistique ne décrivent que la sodomie et n’évoquent jamais le coït intercrural. Dans Homosexualité grecque (1977) — première étude des relations homosexuelles antiques à adopter un point de vue non moralisateur —, l’historien britannique Kenneth J. Dover a décrit les relations intercrurales comme prédominantes, avant de revenir partiellement sur cette thèse dans The Greeks and their Legacy (Les Grecs et leur héritage) en 1988.
